--- a/inst/extdata/expt_smry_cptac_cmbn.xlsx
+++ b/inst/extdata/expt_smry_cptac_cmbn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\data\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1920,9 +1920,9 @@
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2260,7 @@
       <c r="H7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="67">
         <v>1</v>
       </c>
       <c r="J7" s="24"/>
@@ -2305,7 +2305,7 @@
       <c r="H8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="67">
         <v>7</v>
       </c>
       <c r="J8" s="24"/>
@@ -2350,7 +2350,7 @@
       <c r="H9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="67">
         <v>7</v>
       </c>
       <c r="J9" s="24"/>
@@ -2395,7 +2395,7 @@
       <c r="H10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="67">
         <v>1</v>
       </c>
       <c r="J10" s="29"/>
@@ -2440,7 +2440,7 @@
       <c r="H11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="67">
         <v>7</v>
       </c>
       <c r="J11" s="29"/>
@@ -2491,7 +2491,7 @@
       <c r="H12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="68">
         <v>2</v>
       </c>
       <c r="J12" s="39"/>
@@ -2536,7 +2536,7 @@
       <c r="H13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="68">
         <v>8</v>
       </c>
       <c r="J13" s="39"/>
@@ -2581,7 +2581,7 @@
       <c r="H14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="68">
         <v>2</v>
       </c>
       <c r="J14" s="46"/>
@@ -2626,7 +2626,7 @@
       <c r="H15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="68">
         <v>2</v>
       </c>
       <c r="J15" s="46"/>
@@ -2671,7 +2671,7 @@
       <c r="H16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="68">
         <v>8</v>
       </c>
       <c r="J16" s="46"/>
@@ -3172,7 +3172,7 @@
       <c r="H27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="67">
         <v>3</v>
       </c>
       <c r="J27" s="57"/>
@@ -3217,7 +3217,7 @@
       <c r="H28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="67">
         <v>9</v>
       </c>
       <c r="J28" s="57"/>
@@ -3262,7 +3262,7 @@
       <c r="H29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I29" s="67">
         <v>9</v>
       </c>
       <c r="J29" s="57"/>
@@ -3307,7 +3307,7 @@
       <c r="H30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="68">
+      <c r="I30" s="67">
         <v>3</v>
       </c>
       <c r="J30" s="58"/>
@@ -3352,7 +3352,7 @@
       <c r="H31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="67">
         <v>9</v>
       </c>
       <c r="J31" s="58"/>
@@ -3403,7 +3403,7 @@
       <c r="H32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="68">
         <v>4</v>
       </c>
       <c r="J32" s="38"/>
@@ -3448,7 +3448,7 @@
       <c r="H33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="68">
         <v>10</v>
       </c>
       <c r="J33" s="38"/>
@@ -3493,7 +3493,7 @@
       <c r="H34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="68">
         <v>4</v>
       </c>
       <c r="J34" s="45"/>
@@ -3538,7 +3538,7 @@
       <c r="H35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="68">
         <v>4</v>
       </c>
       <c r="J35" s="45"/>
@@ -3583,7 +3583,7 @@
       <c r="H36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="68">
         <v>10</v>
       </c>
       <c r="J36" s="45"/>
@@ -4084,7 +4084,7 @@
       <c r="H47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="68">
+      <c r="I47" s="67">
         <v>5</v>
       </c>
       <c r="J47" s="60"/>
@@ -4129,7 +4129,7 @@
       <c r="H48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="68">
+      <c r="I48" s="67">
         <v>11</v>
       </c>
       <c r="J48" s="60"/>
@@ -4174,7 +4174,7 @@
       <c r="H49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="68">
+      <c r="I49" s="67">
         <v>11</v>
       </c>
       <c r="J49" s="60"/>
@@ -4219,7 +4219,7 @@
       <c r="H50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="68">
+      <c r="I50" s="67">
         <v>5</v>
       </c>
       <c r="J50" s="61"/>
@@ -4264,7 +4264,7 @@
       <c r="H51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="68">
+      <c r="I51" s="67">
         <v>11</v>
       </c>
       <c r="J51" s="61"/>
@@ -4315,7 +4315,7 @@
       <c r="H52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="68">
         <v>6</v>
       </c>
       <c r="J52" s="62"/>
@@ -4360,7 +4360,7 @@
       <c r="H53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="67">
+      <c r="I53" s="68">
         <v>12</v>
       </c>
       <c r="J53" s="62"/>
@@ -4405,7 +4405,7 @@
       <c r="H54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I54" s="67">
+      <c r="I54" s="68">
         <v>6</v>
       </c>
       <c r="J54" s="63"/>
@@ -4450,7 +4450,7 @@
       <c r="H55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="67">
+      <c r="I55" s="68">
         <v>6</v>
       </c>
       <c r="J55" s="63"/>
@@ -4495,7 +4495,7 @@
       <c r="H56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="67">
+      <c r="I56" s="68">
         <v>12</v>
       </c>
       <c r="J56" s="63"/>
